--- a/Automation-UserCMD/TestData/Outputs/FrameworkOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/FrameworkOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Framework" sheetId="1" r:id="R9760a86f69ba478c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Framework" sheetId="1" r:id="R3cd75d8075d04ba2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/FrameworkOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/FrameworkOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Framework" sheetId="1" r:id="R3cd75d8075d04ba2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Framework" sheetId="1" r:id="R985b0d89c7ee4804"/>
   </x:sheets>
 </x:workbook>
 </file>
